--- a/respuestas.xlsx
+++ b/respuestas.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-980" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25360" windowHeight="14420" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="EJ2" sheetId="1" r:id="rId1"/>
     <sheet name="EJ3" sheetId="2" r:id="rId2"/>
     <sheet name="Ej4" sheetId="3" r:id="rId3"/>
+    <sheet name="Ej8" sheetId="4" r:id="rId4"/>
+    <sheet name="Ej10" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="100">
   <si>
     <t>Termino / Documento</t>
   </si>
@@ -125,9 +130,6 @@
     <t>país libre</t>
   </si>
   <si>
-    <t>producción software libre</t>
-  </si>
-  <si>
     <t>NORMA</t>
   </si>
   <si>
@@ -173,9 +175,6 @@
     <t>(Doc4, Doc2, Doc1, Doc3)</t>
   </si>
   <si>
-    <t>(Doc4, Doc3, Doc1, Doc2)</t>
-  </si>
-  <si>
     <t>Peso</t>
   </si>
   <si>
@@ -197,16 +196,136 @@
     <t>(Doc2, Doc4, Doc3, Doc1)</t>
   </si>
   <si>
-    <t>(Doc3, Doc2, Doc1, Doc1)</t>
-  </si>
-  <si>
     <t>(Doc3, Doc4, Doc1, Doc2)</t>
   </si>
   <si>
-    <t>(Doc1, Doc4, Doc1, Doc3)</t>
-  </si>
-  <si>
-    <t>(Doc3, Doc1, Doc4, Doc2)</t>
+    <t>Relevantes</t>
+  </si>
+  <si>
+    <t>Rel. Recup.</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Interpolada</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Cantidad recuperados</t>
+  </si>
+  <si>
+    <t>Total relevantes</t>
+  </si>
+  <si>
+    <t>Relevantes recuperados</t>
+  </si>
+  <si>
+    <t>Presición promedio</t>
+  </si>
+  <si>
+    <t>Recall promedio</t>
+  </si>
+  <si>
+    <t>Presición R</t>
+  </si>
+  <si>
+    <t>Query 1</t>
+  </si>
+  <si>
+    <t>Total rel =</t>
+  </si>
+  <si>
+    <t>Presición</t>
+  </si>
+  <si>
+    <t>Query 2</t>
+  </si>
+  <si>
+    <t>Sistema A</t>
+  </si>
+  <si>
+    <t>Sistema B</t>
+  </si>
+  <si>
+    <t>Sistema C</t>
+  </si>
+  <si>
+    <t>Precisión R</t>
+  </si>
+  <si>
+    <t>Promedio presición</t>
+  </si>
+  <si>
+    <t>P@5</t>
+  </si>
+  <si>
+    <t>P@10</t>
+  </si>
+  <si>
+    <t>P@20</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>PR3</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A-C</t>
+  </si>
+  <si>
+    <t>B-C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Promedios precisión</t>
+  </si>
+  <si>
+    <t>Promedios Recall</t>
+  </si>
+  <si>
+    <t>Score F</t>
+  </si>
+  <si>
+    <t>posición 5</t>
+  </si>
+  <si>
+    <t>posición 24</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>posición 16</t>
+  </si>
+  <si>
+    <t>producción software pais</t>
+  </si>
+  <si>
+    <t>(Doc3, Doc2, Doc1, Doc3)</t>
+  </si>
+  <si>
+    <t>Presición 30%</t>
+  </si>
+  <si>
+    <t>Presición 30% (interpolada)</t>
   </si>
 </sst>
 </file>
@@ -261,12 +380,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,7 +403,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -374,15 +499,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -430,6 +564,9 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -477,11 +614,660 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Punto8!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Punto8!$I$3:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2077979016"/>
+        <c:axId val="2067254296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077979016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2067254296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067254296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2077979016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Punto8!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.454545454545454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Punto8!$E$3:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2087259304"/>
+        <c:axId val="2086947320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2087259304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086947320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086947320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087259304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Punto8"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3">
+            <v>9.0909090909090912E-2</v>
+          </cell>
+          <cell r="E3">
+            <v>1</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>9.0909090909090912E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>0.5</v>
+          </cell>
+          <cell r="H4">
+            <v>0.1</v>
+          </cell>
+          <cell r="I4">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>9.0909090909090912E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="H5">
+            <v>0.2</v>
+          </cell>
+          <cell r="I5">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>0.18181818181818182</v>
+          </cell>
+          <cell r="E6">
+            <v>0.5</v>
+          </cell>
+          <cell r="H6">
+            <v>0.3</v>
+          </cell>
+          <cell r="I6">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0.27272727272727271</v>
+          </cell>
+          <cell r="E7">
+            <v>0.6</v>
+          </cell>
+          <cell r="H7">
+            <v>0.4</v>
+          </cell>
+          <cell r="I7">
+            <v>0.35714285714285715</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>0.27272727272727271</v>
+          </cell>
+          <cell r="E8">
+            <v>0.5</v>
+          </cell>
+          <cell r="H8">
+            <v>0.5</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>0.27272727272727271</v>
+          </cell>
+          <cell r="E9">
+            <v>0.42857142857142855</v>
+          </cell>
+          <cell r="H9">
+            <v>0.6</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>0.27272727272727271</v>
+          </cell>
+          <cell r="E10">
+            <v>0.375</v>
+          </cell>
+          <cell r="H10">
+            <v>0.7</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>0.27272727272727271</v>
+          </cell>
+          <cell r="E11">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="H11">
+            <v>0.8</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>0.36363636363636365</v>
+          </cell>
+          <cell r="E12">
+            <v>0.4</v>
+          </cell>
+          <cell r="H12">
+            <v>0.9</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>0.36363636363636365</v>
+          </cell>
+          <cell r="E13">
+            <v>0.36363636363636365</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>0.36363636363636365</v>
+          </cell>
+          <cell r="E14">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>0.36363636363636365</v>
+          </cell>
+          <cell r="E15">
+            <v>0.30769230769230771</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>0.45454545454545453</v>
+          </cell>
+          <cell r="E16">
+            <v>0.35714285714285715</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>0.45454545454545453</v>
+          </cell>
+          <cell r="E17">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,7 +1594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -854,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -874,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -894,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1002,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1022,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1042,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1062,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1167,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1177,7 +1965,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1199,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1225,7 +2013,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1257,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R2">
         <f>SQRT(1)</f>
@@ -1281,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
@@ -1296,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
@@ -1328,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2">
         <f>1*'EJ3'!B3</f>
@@ -1347,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
         <f>(1*B3)/B21</f>
@@ -1383,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1443,7 +2231,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R7">
         <f>SQRT(1+1)</f>
@@ -1467,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
@@ -1482,7 +2270,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>1</v>
@@ -1514,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2">
         <f>(1*'EJ3'!B14)+('EJ3'!B4*1)</f>
@@ -1533,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
         <f>(1*B14+1*B4)/(B21*R7)</f>
@@ -1569,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1620,16 +2408,16 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R12">
         <f>SQRT(1+1+1)</f>
@@ -1653,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>1</v>
@@ -1668,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>1</v>
@@ -1700,42 +2488,42 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2">
-        <f>(1*'EJ3'!B16)+(1*'EJ3'!B3)+(1*'EJ3'!B4)</f>
+        <f>(1*'EJ3'!B16)+(1*'EJ3'!B3)+(1*'EJ3'!B14)</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <f>(1*'EJ3'!C16)+(1*'EJ3'!C3)+(1*'EJ3'!C14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f>(1*'EJ3'!D16)+(1*'EJ3'!D3)+(1*'EJ3'!D14)</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <f>(1*'EJ3'!E16)+(1*'EJ3'!E3)+(1*'EJ3'!E14)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <f>(1*'EJ3'!C16)+(1*'EJ3'!C3)+(1*'EJ3'!C4)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <f>(1*'EJ3'!D16)+(1*'EJ3'!D3)+(1*'EJ3'!D4)</f>
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
-        <f>(1*'EJ3'!E16)+(1*'EJ3'!E3)+(1*'EJ3'!E4)</f>
-        <v>4</v>
-      </c>
       <c r="N14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O14" s="2">
-        <f>(1*B16+1*B3+1*B4)/(B21*R12)</f>
-        <v>0.44721359549995798</v>
+        <f>(1*B16+1*B3+1*B14)/(B21*R12)</f>
+        <v>0.29814239699997197</v>
       </c>
       <c r="P14" s="2">
-        <f>(1*C16+1*C3+1*C4)/(C21*R12)</f>
+        <f>(1*C16+1*C3+1*C14)/(C21*R12)</f>
         <v>0.2581988897471611</v>
       </c>
       <c r="Q14" s="2">
-        <f>(1*D16+1*D3+1*D4)/(D21*R12)</f>
-        <v>0.54772255750516607</v>
+        <f>(1*D16+1*D3+1*D14)/(D21*R12)</f>
+        <v>0.73029674334022143</v>
       </c>
       <c r="R14" s="2">
-        <f>(1*E16+1*E3+1*E4)/(E21*R12)</f>
-        <v>0.61721339984836776</v>
+        <f>(1*E16+1*E3+1*E14)/(E21*R12)</f>
+        <v>0.46291004988627577</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1755,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1854,7 +2642,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <f>SQRT(SUMSQ(B3:B20))</f>
@@ -2043,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2070,7 +2858,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -2090,10 +2878,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -2108,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T2">
         <f>SQRT(POWER(G3,2))</f>
@@ -2143,7 +2931,7 @@
         <v>0.12493873660829993</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
@@ -2158,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
@@ -2201,7 +2989,7 @@
         <v>0.12493873660829993</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="2">
         <f>($G3*B3)</f>
@@ -2220,18 +3008,18 @@
         <v>3.1219375810556293E-2</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2">
         <f>(J4)/(B21*$T$2)</f>
-        <v>2</v>
+        <v>0.14900529334977036</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ref="R4:T4" si="2">(K4)/(C21*$T$2)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="2"/>
+        <f>(L4)/(D21*$T$2)</f>
         <v>8.2162662067919889E-2</v>
       </c>
       <c r="T4" s="2">
@@ -2267,16 +3055,16 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U5" s="1"/>
     </row>
@@ -2350,7 +3138,7 @@
         <v>33</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T7">
         <f>SQRT(POWER(G14,2)+POWER(G4,2))</f>
@@ -2385,7 +3173,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>1</v>
@@ -2400,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>1</v>
@@ -2443,7 +3231,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
         <f>($G$14*B14)+(B4*$G$4)</f>
@@ -2462,11 +3250,11 @@
         <v>4.6829063715834437E-2</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="2">
         <f>(($G4*B4)+($G14*B14))/(B21*$T$7)</f>
-        <v>0.70710678118654757</v>
+        <v>5.2681326680156695E-2</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ref="R9:S9" si="4">(($G4*C4)+($G14*C14))/(C21*$T$7)</f>
@@ -2509,16 +3297,16 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="U10" s="1"/>
     </row>
@@ -2583,19 +3371,19 @@
         <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T12">
-        <f>SQRT(POWER(G16,2)+POWER(G3,2)+POWER(G4,2))</f>
+        <f>SQRT(POWER(G16,2)+POWER(G3,2)+POWER(G14,2))</f>
         <v>0.62745167859236983</v>
       </c>
     </row>
@@ -2627,7 +3415,7 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>1</v>
@@ -2642,7 +3430,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>1</v>
@@ -2685,42 +3473,42 @@
         <v>0.12493873660829993</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14" s="2">
-        <f>(B16*$G$16)+(B3*$G$3)+(B4*$G$4)</f>
+        <f>(B16*$G$16)+(B3*$G$3)+(B14*$G$14)</f>
+        <v>3.1219375810556293E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f>(C16*$G$16)+(C3*$G$3)+(C14*$G$4)</f>
+        <v>1.5609687905278146E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <f>(D16*$G$16)+(D3*$G$3)+(D14*$G$4)</f>
+        <v>0.75617184212620869</v>
+      </c>
+      <c r="M14" s="2">
+        <f>(E16*$G$16)+(E3*$G$3)+(E14*$G$4)</f>
         <v>4.6829063715834437E-2</v>
       </c>
-      <c r="K14" s="2">
-        <f t="shared" ref="K14:M14" si="5">(C16*$G$16)+(C3*$G$3)+(C4*$G$4)</f>
-        <v>1.5609687905278146E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="5"/>
-        <v>0.74056215422093052</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="5"/>
-        <v>6.2438751621112586E-2</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="2">
-        <f>((B16*$G$16)+(B3*$G$3)+(B4*$G$4))/($T$12*B21)</f>
-        <v>0.59736266968918705</v>
+        <f>((B16*$G$16)+(B3*$G$3)+(B14*$G$14))/($T$12*B21)</f>
+        <v>2.9670066611079769E-2</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:T14" si="6">((C16*$G$16)+(C3*$G$3)+(C4*$G$4))/($T$12*C21)</f>
+        <f>((C16*$G$16)+(C3*$G$3)+(C14*$G$4))/($T$12*C21)</f>
         <v>2.7034966969201608E-2</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="6"/>
-        <v>0.77617315945756304</v>
+        <f>((D16*$G$16)+(D3*$G$3)+(D14*$G$4))/($T$12*D21)</f>
+        <v>0.79253346184478413</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="6"/>
-        <v>9.6550137824216786E-2</v>
+        <f>((E16*$G$16)+(E3*$G$3)+(E14*$G$4))/($T$12*E21)</f>
+        <v>7.241260336816259E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2751,16 +3539,16 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2906,11 +3694,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
-        <f>SQRT(POWER(G3,2))</f>
-        <v>0.12493873660829993</v>
+        <f>SQRT(SUMSQ(B3:B20))</f>
+        <v>1.6769704458085615</v>
       </c>
       <c r="C21" s="1">
         <f>SQRT(SUMSQ(C3:C20))</f>
@@ -2927,7 +3715,5198 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>C4/$C$21</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E4">
+        <f>C4/A4</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>IF(B5="R",C4+1,C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D18" si="0">C5/$C$21</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E18" si="1">C5/A5</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C18" si="2">IF(B6="R",C5+1,C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <f>E13</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <f>E17</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="H11">
+        <v>0.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E14">
+        <f>C14/A14</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <f>(E4+E7+E8+E13+E17)/C22</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <f>(D4+D7+D8+D13+D17)/5</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <f>E13</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26">
+        <f>I7</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <f>E14</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>17</v>
+      </c>
+      <c r="R1" s="5">
+        <v>18</v>
+      </c>
+      <c r="S1" s="5">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5">
+        <v>20</v>
+      </c>
+      <c r="U1" s="5">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5">
+        <v>22</v>
+      </c>
+      <c r="W1" s="5">
+        <v>23</v>
+      </c>
+      <c r="X1" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.6</v>
+      </c>
+      <c r="AI4">
+        <v>0.6</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.3</v>
+      </c>
+      <c r="AL4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.3</v>
+      </c>
+      <c r="AC5">
+        <v>0.3</v>
+      </c>
+      <c r="AD5">
+        <v>0.3</v>
+      </c>
+      <c r="AE5">
+        <v>0.3</v>
+      </c>
+      <c r="AF5">
+        <v>0.3</v>
+      </c>
+      <c r="AG5">
+        <v>0.3</v>
+      </c>
+      <c r="AH5">
+        <v>0.3</v>
+      </c>
+      <c r="AI5">
+        <v>0.3</v>
+      </c>
+      <c r="AJ5">
+        <v>0.3</v>
+      </c>
+      <c r="AK5">
+        <v>0.3</v>
+      </c>
+      <c r="AL5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.6</v>
+      </c>
+      <c r="AC6">
+        <v>0.6</v>
+      </c>
+      <c r="AD6">
+        <v>0.6</v>
+      </c>
+      <c r="AE6">
+        <v>0.6</v>
+      </c>
+      <c r="AF6">
+        <v>0.6</v>
+      </c>
+      <c r="AG6">
+        <v>0.6</v>
+      </c>
+      <c r="AH6">
+        <v>0.6</v>
+      </c>
+      <c r="AI6">
+        <v>0.6</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5</v>
+      </c>
+      <c r="AK6">
+        <v>0.5</v>
+      </c>
+      <c r="AL6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9">
+        <f>SUM($A4:A4)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B9">
+        <f>SUM($A4:B4)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9">
+        <f>SUM($A4:C4)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f>SUM($A4:D4)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f>SUM($A4:E4)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f>SUM($A4:F4)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <f>SUM($A4:G4)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9">
+        <f>SUM($A4:H4)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9">
+        <f>SUM($A4:I4)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J9">
+        <f>SUM($A4:J4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K9">
+        <f>SUM($A4:K4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L9">
+        <f>SUM($A4:L4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M9">
+        <f>SUM($A4:M4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N9">
+        <f>SUM($A4:N4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O9">
+        <f>SUM($A4:O4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P9">
+        <f>SUM($A4:P4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q9">
+        <f>SUM($A4:Q4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R9">
+        <f>SUM($A4:R4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S9">
+        <f>SUM($A4:S4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T9">
+        <f>SUM($A4:T4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U9">
+        <f>SUM($A4:U4)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V9">
+        <f>SUM($A4:V4)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f>SUM($A4:W4)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>SUM($A4:X4)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <f>SUM($A4:Y4)/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10">
+        <f>SUM($A5:A5)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>SUM($A5:B5)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>SUM($A5:C5)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>SUM($A5:D5)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>SUM($A5:E5)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F10">
+        <f>SUM($A5:F5)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G10">
+        <f>SUM($A5:G5)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H10">
+        <f>SUM($A5:H5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10">
+        <f>SUM($A5:I5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J10">
+        <f>SUM($A5:J5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K10">
+        <f>SUM($A5:K5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L10">
+        <f>SUM($A5:L5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M10">
+        <f>SUM($A5:M5)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N10">
+        <f>SUM($A5:N5)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="O10">
+        <f>SUM($A5:O5)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <f>SUM($A5:P5)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <f>SUM($A5:Q5)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <f>SUM($A5:R5)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <f>SUM($A5:S5)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T10">
+        <f>SUM($A5:T5)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U10">
+        <f>SUM($A5:U5)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V10">
+        <f>SUM($A5:V5)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W10">
+        <f>SUM($A5:W5)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X10">
+        <f>SUM($A5:X5)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <f>SUM($A5:Y5)/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11">
+        <f>SUM($A6:A6)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>SUM($A6:B6)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C11">
+        <f>SUM($A6:C6)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D11">
+        <f>SUM($A6:D6)/$E$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E11">
+        <f>SUM($A6:E6)/$E$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11">
+        <f>SUM($A6:F6)/$E$3</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f>SUM($A6:G6)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11">
+        <f>SUM($A6:H6)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11">
+        <f>SUM($A6:I6)/$E$3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J11">
+        <f>SUM($A6:J6)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K11">
+        <f>SUM($A6:K6)/$E$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L11">
+        <f>SUM($A6:L6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>SUM($A6:M6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>SUM($A6:N6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>SUM($A6:O6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>SUM($A6:P6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>SUM($A6:Q6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>SUM($A6:R6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f>SUM($A6:S6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f>SUM($A6:T6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>SUM($A6:U6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>SUM($A6:V6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f>SUM($A6:W6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>SUM($A6:X6)/$E$3</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>SUM($A6:Y6)/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14">
+        <f>SUM($A4:A4)/A$1</f>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>SUM($A4:B4)/B$1</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>SUM($A4:C4)/C$1</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>SUM($A4:D4)/D$1</f>
+        <v>0.75</v>
+      </c>
+      <c r="E14">
+        <f>SUM($A4:E4)/E$1</f>
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <f>SUM($A4:F4)/F$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <f>SUM($A4:G4)/G$1</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H14">
+        <f>SUM($A4:H4)/H$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <f>SUM($A4:I4)/I$1</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J14">
+        <f>SUM($A4:J4)/J$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <f>SUM($A4:K4)/K$1</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="L14">
+        <f>SUM($A4:L4)/L$1</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M14">
+        <f>SUM($A4:M4)/M$1</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="N14">
+        <f>SUM($A4:N4)/N$1</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O14">
+        <f>SUM($A4:O4)/O$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P14">
+        <f>SUM($A4:P4)/P$1</f>
+        <v>0.3125</v>
+      </c>
+      <c r="Q14">
+        <f>SUM($A4:Q4)/Q$1</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R14">
+        <f>SUM($A4:R4)/R$1</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S14">
+        <f>SUM($A4:S4)/S$1</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="T14">
+        <f>SUM($A4:T4)/T$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="U14">
+        <f>SUM($A4:U4)/U$1</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="V14">
+        <f>SUM($A4:V4)/V$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W14">
+        <f>SUM($A4:W4)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X14">
+        <f>SUM($A4:X4)/X$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y14">
+        <f>SUM($A4:Y4)/Y$1</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15">
+        <f>SUM($A5:A5)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>SUM($A5:B5)/B$1</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SUM($A5:C5)/C$1</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>SUM($A5:D5)/D$1</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>SUM($A5:E5)/E$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <f>SUM($A5:F5)/F$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G15">
+        <f>SUM($A5:G5)/G$1</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H15">
+        <f>SUM($A5:H5)/H$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>SUM($A5:I5)/I$1</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J15">
+        <f>SUM($A5:J5)/J$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <f>SUM($A5:K5)/K$1</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L15">
+        <f>SUM($A5:L5)/L$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M15">
+        <f>SUM($A5:M5)/M$1</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N15">
+        <f>SUM($A5:N5)/N$1</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="O15">
+        <f>SUM($A5:O5)/O$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="P15">
+        <f>SUM($A5:P5)/P$1</f>
+        <v>0.1875</v>
+      </c>
+      <c r="Q15">
+        <f>SUM($A5:Q5)/Q$1</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="R15">
+        <f>SUM($A5:R5)/R$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S15">
+        <f>SUM($A5:S5)/S$1</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="T15">
+        <f>SUM($A5:T5)/T$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="U15">
+        <f>SUM($A5:U5)/U$1</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="V15">
+        <f>SUM($A5:V5)/V$1</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="W15">
+        <f>SUM($A5:W5)/W$1</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="X15">
+        <f>SUM($A5:X5)/X$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y15">
+        <f>SUM($A5:Y5)/Y$1</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16">
+        <f>SUM($A6:A6)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>SUM($A6:B6)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <f>SUM($A6:C6)/C$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16">
+        <f>SUM($A6:D6)/D$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <f>SUM($A6:E6)/E$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="F16">
+        <f>SUM($A6:F6)/F$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <f>SUM($A6:G6)/G$1</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H16">
+        <f>SUM($A6:H6)/H$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>SUM($A6:I6)/I$1</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J16">
+        <f>SUM($A6:J6)/J$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <f>SUM($A6:K6)/K$1</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="L16">
+        <f>SUM($A6:L6)/L$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <f>SUM($A6:M6)/M$1</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="N16">
+        <f>SUM($A6:N6)/N$1</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O16">
+        <f>SUM($A6:O6)/O$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="P16">
+        <f>SUM($A6:P6)/P$1</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q16">
+        <f>SUM($A6:Q6)/Q$1</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="R16">
+        <f>SUM($A6:R6)/R$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S16">
+        <f>SUM($A6:S6)/S$1</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="T16">
+        <f>SUM($A6:T6)/T$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="U16">
+        <f>SUM($A6:U6)/U$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V16">
+        <f>SUM($A6:V6)/V$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W16">
+        <f>SUM($A6:W6)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X16">
+        <f>SUM($A6:X6)/X$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y16">
+        <f>SUM($A6:Y6)/Y$1</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8</v>
+      </c>
+      <c r="I21" s="5">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5">
+        <v>11</v>
+      </c>
+      <c r="L21" s="5">
+        <v>12</v>
+      </c>
+      <c r="M21" s="5">
+        <v>13</v>
+      </c>
+      <c r="N21" s="5">
+        <v>14</v>
+      </c>
+      <c r="O21" s="5">
+        <v>15</v>
+      </c>
+      <c r="P21" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>17</v>
+      </c>
+      <c r="R21" s="5">
+        <v>18</v>
+      </c>
+      <c r="S21" s="5">
+        <v>19</v>
+      </c>
+      <c r="T21" s="5">
+        <v>20</v>
+      </c>
+      <c r="U21" s="5">
+        <v>21</v>
+      </c>
+      <c r="V21" s="5">
+        <v>22</v>
+      </c>
+      <c r="W21" s="5">
+        <v>23</v>
+      </c>
+      <c r="X21" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0.8</v>
+      </c>
+      <c r="AE24">
+        <v>0.8</v>
+      </c>
+      <c r="AF24">
+        <v>0.8</v>
+      </c>
+      <c r="AG24">
+        <v>0.8</v>
+      </c>
+      <c r="AH24">
+        <v>0.8</v>
+      </c>
+      <c r="AI24">
+        <v>0.4</v>
+      </c>
+      <c r="AJ24">
+        <v>0.4</v>
+      </c>
+      <c r="AK24">
+        <v>0.4</v>
+      </c>
+      <c r="AL24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
+      <c r="AD25">
+        <v>0.3</v>
+      </c>
+      <c r="AE25">
+        <v>0.3</v>
+      </c>
+      <c r="AF25">
+        <v>0.3</v>
+      </c>
+      <c r="AG25">
+        <v>0.3</v>
+      </c>
+      <c r="AH25">
+        <v>0.3</v>
+      </c>
+      <c r="AI25">
+        <v>0.3</v>
+      </c>
+      <c r="AJ25">
+        <v>0.3</v>
+      </c>
+      <c r="AK25">
+        <v>0.3</v>
+      </c>
+      <c r="AL25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0.5</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
+      <c r="AD26">
+        <v>0.4</v>
+      </c>
+      <c r="AE26">
+        <v>0.4</v>
+      </c>
+      <c r="AF26">
+        <v>0.4</v>
+      </c>
+      <c r="AG26">
+        <v>0.3</v>
+      </c>
+      <c r="AH26">
+        <v>0.3</v>
+      </c>
+      <c r="AI26">
+        <v>0.3</v>
+      </c>
+      <c r="AJ26">
+        <v>0.3</v>
+      </c>
+      <c r="AK26">
+        <v>0.3</v>
+      </c>
+      <c r="AL26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29">
+        <f>SUM($A24:A24)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="B29">
+        <f>SUM($A24:B24)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C29">
+        <f>SUM($A24:C24)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D29">
+        <f>SUM($A24:D24)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E29">
+        <f>SUM($A24:E24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="F29">
+        <f>SUM($A24:F24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G29">
+        <f>SUM($A24:G24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H29">
+        <f>SUM($A24:H24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I29">
+        <f>SUM($A24:I24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J29">
+        <f>SUM($A24:J24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K29">
+        <f>SUM($A24:K24)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L29">
+        <f>SUM($A24:L24)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M29">
+        <f>SUM($A24:M24)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N29">
+        <f>SUM($A24:N24)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O29">
+        <f>SUM($A24:O24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P29">
+        <f>SUM($A24:P24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q29">
+        <f>SUM($A24:Q24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R29">
+        <f>SUM($A24:R24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S29">
+        <f>SUM($A24:S24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T29">
+        <f>SUM($A24:T24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U29">
+        <f>SUM($A24:U24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V29">
+        <f>SUM($A24:V24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W29">
+        <f>SUM($A24:W24)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X29">
+        <f>SUM($A24:X24)/$E$23</f>
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <f>SUM($A24:Y24)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30">
+        <f>SUM($A25:A25)/$E$23</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>SUM($A25:B25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C30">
+        <f>SUM($A25:C25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D30">
+        <f>SUM($A25:D25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E30">
+        <f>SUM($A25:E25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F30">
+        <f>SUM($A25:F25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G30">
+        <f>SUM($A25:G25)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H30">
+        <f>SUM($A25:H25)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I30">
+        <f>SUM($A25:I25)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J30">
+        <f>SUM($A25:J25)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K30">
+        <f>SUM($A25:K25)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L30">
+        <f>SUM($A25:L25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M30">
+        <f>SUM($A25:M25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N30">
+        <f>SUM($A25:N25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O30">
+        <f>SUM($A25:O25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P30">
+        <f>SUM($A25:P25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q30">
+        <f>SUM($A25:Q25)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R30">
+        <f>SUM($A25:R25)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="S30">
+        <f>SUM($A25:S25)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T30">
+        <f>SUM($A25:T25)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U30">
+        <f>SUM($A25:U25)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V30">
+        <f>SUM($A25:V25)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W30">
+        <f>SUM($A25:W25)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X30">
+        <f>SUM($A25:X25)/$E$23</f>
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <f>SUM($A25:Y25)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31">
+        <f>SUM($A26:A26)/$E$23</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>SUM($A26:B26)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C31">
+        <f>SUM($A26:C26)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D31">
+        <f>SUM($A26:D26)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E31">
+        <f>SUM($A26:E26)/$E$23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F31">
+        <f>SUM($A26:F26)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G31">
+        <f>SUM($A26:G26)/$E$23</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H31">
+        <f>SUM($A26:H26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I31">
+        <f>SUM($A26:I26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J31">
+        <f>SUM($A26:J26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K31">
+        <f>SUM($A26:K26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L31">
+        <f>SUM($A26:L26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M31">
+        <f>SUM($A26:M26)/$E$23</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N31">
+        <f>SUM($A26:N26)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O31">
+        <f>SUM($A26:O26)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P31">
+        <f>SUM($A26:P26)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q31">
+        <f>SUM($A26:Q26)/$E$23</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R31">
+        <f>SUM($A26:R26)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S31">
+        <f>SUM($A26:S26)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="T31">
+        <f>SUM($A26:T26)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U31">
+        <f>SUM($A26:U26)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V31">
+        <f>SUM($A26:V26)/$E$23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W31">
+        <f>SUM($A26:W26)/$E$23</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X31">
+        <f>SUM($A26:X26)/$E$23</f>
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <f>SUM($A26:Y26)/$E$23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38">
+      <c r="A34">
+        <f>SUM($A24:A24)/A$1</f>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f>SUM($A24:B24)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <f>SUM($A24:C24)/C$1</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34">
+        <f>SUM($A24:D24)/D$1</f>
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <f>SUM($A24:E24)/E$1</f>
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <f>SUM($A24:F24)/F$1</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G34">
+        <f>SUM($A24:G24)/G$1</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H34">
+        <f>SUM($A24:H24)/H$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <f>SUM($A24:I24)/I$1</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J34">
+        <f>SUM($A24:J24)/J$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="K34">
+        <f>SUM($A24:K24)/K$1</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L34">
+        <f>SUM($A24:L24)/L$1</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M34">
+        <f>SUM($A24:M24)/M$1</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="N34">
+        <f>SUM($A24:N24)/N$1</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="O34">
+        <f>SUM($A24:O24)/O$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="P34">
+        <f>SUM($A24:P24)/P$1</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q34">
+        <f>SUM($A24:Q24)/Q$1</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="R34">
+        <f>SUM($A24:R24)/R$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S34">
+        <f>SUM($A24:S24)/S$1</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="T34">
+        <f>SUM($A24:T24)/T$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="U34">
+        <f>SUM($A24:U24)/U$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V34">
+        <f>SUM($A24:V24)/V$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W34">
+        <f>SUM($A24:W24)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X34">
+        <f>SUM($A24:X24)/X$1</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y34">
+        <f>SUM($A24:Y24)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38">
+      <c r="A35">
+        <f>SUM($A25:A25)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>SUM($A25:B25)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <f>SUM($A25:C25)/C$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35">
+        <f>SUM($A25:D25)/D$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="E35">
+        <f>SUM($A25:E25)/E$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="F35">
+        <f>SUM($A25:F25)/F$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G35">
+        <f>SUM($A25:G25)/G$1</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H35">
+        <f>SUM($A25:H25)/H$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I35">
+        <f>SUM($A25:I25)/I$1</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J35">
+        <f>SUM($A25:J25)/J$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K35">
+        <f>SUM($A25:K25)/K$1</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L35">
+        <f>SUM($A25:L25)/L$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="M35">
+        <f>SUM($A25:M25)/M$1</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N35">
+        <f>SUM($A25:N25)/N$1</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="O35">
+        <f>SUM($A25:O25)/O$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="P35">
+        <f>SUM($A25:P25)/P$1</f>
+        <v>0.1875</v>
+      </c>
+      <c r="Q35">
+        <f>SUM($A25:Q25)/Q$1</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="R35">
+        <f>SUM($A25:R25)/R$1</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S35">
+        <f>SUM($A25:S25)/S$1</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="T35">
+        <f>SUM($A25:T25)/T$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="U35">
+        <f>SUM($A25:U25)/U$1</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="V35">
+        <f>SUM($A25:V25)/V$1</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="W35">
+        <f>SUM($A25:W25)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X35">
+        <f>SUM($A25:X25)/X$1</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y35">
+        <f>SUM($A25:Y25)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38">
+      <c r="A36">
+        <f>SUM($A26:A26)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>SUM($A26:B26)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <f>SUM($A26:C26)/C$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36">
+        <f>SUM($A26:D26)/D$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="E36">
+        <f>SUM($A26:E26)/E$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="F36">
+        <f>SUM($A26:F26)/F$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G36">
+        <f>SUM($A26:G26)/G$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H36">
+        <f>SUM($A26:H26)/H$1</f>
+        <v>0.375</v>
+      </c>
+      <c r="I36">
+        <f>SUM($A26:I26)/I$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J36">
+        <f>SUM($A26:J26)/J$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <f>SUM($A26:K26)/K$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="L36">
+        <f>SUM($A26:L26)/L$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="M36">
+        <f>SUM($A26:M26)/M$1</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N36">
+        <f>SUM($A26:N26)/N$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O36">
+        <f>SUM($A26:O26)/O$1</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="P36">
+        <f>SUM($A26:P26)/P$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q36">
+        <f>SUM($A26:Q26)/Q$1</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="R36">
+        <f>SUM($A26:R26)/R$1</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S36">
+        <f>SUM($A26:S26)/S$1</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="T36">
+        <f>SUM($A26:T26)/T$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="U36">
+        <f>SUM($A26:U26)/U$1</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="V36">
+        <f>SUM($A26:V26)/V$1</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="W36">
+        <f>SUM($A26:W26)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X36">
+        <f>SUM($A26:X26)/X$1</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y36">
+        <f>SUM($A26:Y26)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8</v>
+      </c>
+      <c r="I43" s="5">
+        <v>9</v>
+      </c>
+      <c r="J43" s="5">
+        <v>10</v>
+      </c>
+      <c r="K43" s="5">
+        <v>11</v>
+      </c>
+      <c r="L43" s="5">
+        <v>12</v>
+      </c>
+      <c r="M43" s="5">
+        <v>13</v>
+      </c>
+      <c r="N43" s="5">
+        <v>14</v>
+      </c>
+      <c r="O43" s="5">
+        <v>15</v>
+      </c>
+      <c r="P43" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>17</v>
+      </c>
+      <c r="R43" s="5">
+        <v>18</v>
+      </c>
+      <c r="S43" s="5">
+        <v>19</v>
+      </c>
+      <c r="T43" s="5">
+        <v>20</v>
+      </c>
+      <c r="U43" s="5">
+        <v>21</v>
+      </c>
+      <c r="V43" s="5">
+        <v>22</v>
+      </c>
+      <c r="W43" s="5">
+        <v>23</v>
+      </c>
+      <c r="X43" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>25</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI43" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AJ43" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AK43" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AL43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="AI45" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AK45" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AL45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB46">
+        <v>0.5</v>
+      </c>
+      <c r="AC46">
+        <v>0.5</v>
+      </c>
+      <c r="AD46">
+        <v>0.5</v>
+      </c>
+      <c r="AE46">
+        <v>0.5</v>
+      </c>
+      <c r="AF46">
+        <v>0.3</v>
+      </c>
+      <c r="AG46">
+        <v>0.3</v>
+      </c>
+      <c r="AH46">
+        <v>0.3</v>
+      </c>
+      <c r="AI46">
+        <v>0.3</v>
+      </c>
+      <c r="AJ46">
+        <v>0.3</v>
+      </c>
+      <c r="AK46">
+        <v>0.3</v>
+      </c>
+      <c r="AL46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB47">
+        <v>0.5</v>
+      </c>
+      <c r="AC47">
+        <v>0.5</v>
+      </c>
+      <c r="AD47">
+        <v>0.4</v>
+      </c>
+      <c r="AE47">
+        <v>0.4</v>
+      </c>
+      <c r="AF47">
+        <v>0.3</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AH47">
+        <v>0.3</v>
+      </c>
+      <c r="AI47">
+        <v>0.3</v>
+      </c>
+      <c r="AJ47">
+        <v>0.3</v>
+      </c>
+      <c r="AK47">
+        <v>0.3</v>
+      </c>
+      <c r="AL47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB48">
+        <v>0.4</v>
+      </c>
+      <c r="AC48">
+        <v>0.4</v>
+      </c>
+      <c r="AD48">
+        <v>0.4</v>
+      </c>
+      <c r="AE48">
+        <v>0.4</v>
+      </c>
+      <c r="AF48">
+        <v>0.4</v>
+      </c>
+      <c r="AG48">
+        <v>0.4</v>
+      </c>
+      <c r="AH48">
+        <v>0.4</v>
+      </c>
+      <c r="AI48">
+        <v>0.4</v>
+      </c>
+      <c r="AJ48">
+        <v>0.4</v>
+      </c>
+      <c r="AK48">
+        <v>0.4</v>
+      </c>
+      <c r="AL48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="A51">
+        <f>SUM($A46:A46)/$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <f>SUM($A46:B46)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C51">
+        <f>SUM($A46:C46)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D51">
+        <f>SUM($A46:D46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E51">
+        <f>SUM($A46:E46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F51">
+        <f>SUM($A46:F46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G51">
+        <f>SUM($A46:G46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H51">
+        <f>SUM($A46:H46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I51">
+        <f>SUM($A46:I46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J51">
+        <f>SUM($A46:J46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K51">
+        <f>SUM($A46:K46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L51">
+        <f>SUM($A46:L46)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M51">
+        <f>SUM($A46:M46)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N51">
+        <f>SUM($A46:N46)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O51">
+        <f>SUM($A46:O46)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="P51">
+        <f>SUM($A46:P46)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q51">
+        <f>SUM($A46:Q46)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R51">
+        <f>SUM($A46:R46)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S51">
+        <f>SUM($A46:S46)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="T51">
+        <f>SUM($A46:T46)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U51">
+        <f>SUM($A46:U46)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V51">
+        <f>SUM($A46:V46)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W51">
+        <f>SUM($A46:W46)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X51">
+        <f>SUM($A46:X46)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Y51">
+        <f>SUM($A46:Y46)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" ref="AB51:AL53" si="0">(AB46+AB24+AB4)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="AI51">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52">
+        <f>SUM($A47:A47)/$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f>SUM($A47:B47)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C52">
+        <f>SUM($A47:C47)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D52">
+        <f>SUM($A47:D47)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E52">
+        <f>SUM($A47:E47)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F52">
+        <f>SUM($A47:F47)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G52">
+        <f>SUM($A47:G47)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H52">
+        <f>SUM($A47:H47)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I52">
+        <f>SUM($A47:I47)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J52">
+        <f>SUM($A47:J47)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K52">
+        <f>SUM($A47:K47)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L52">
+        <f>SUM($A47:L47)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="M52">
+        <f>SUM($A47:M47)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="N52">
+        <f>SUM($A47:N47)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O52">
+        <f>SUM($A47:O47)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P52">
+        <f>SUM($A47:P47)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Q52">
+        <f>SUM($A47:Q47)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R52">
+        <f>SUM($A47:R47)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="S52">
+        <f>SUM($A47:S47)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T52">
+        <f>SUM($A47:T47)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U52">
+        <f>SUM($A47:U47)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V52">
+        <f>SUM($A47:V47)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W52">
+        <f>SUM($A47:W47)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f>SUM($A47:X47)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <f>SUM($A47:Y47)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38">
+      <c r="A53">
+        <f>SUM($A48:A48)/$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>SUM($A48:B48)/$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>SUM($A48:C48)/$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>SUM($A48:D48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E53">
+        <f>SUM($A48:E48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F53">
+        <f>SUM($A48:F48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G53">
+        <f>SUM($A48:G48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H53">
+        <f>SUM($A48:H48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I53">
+        <f>SUM($A48:I48)/$E$45</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J53">
+        <f>SUM($A48:J48)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K53">
+        <f>SUM($A48:K48)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L53">
+        <f>SUM($A48:L48)/$E$45</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M53">
+        <f>SUM($A48:M48)/$E$45</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N53">
+        <f>SUM($A48:N48)/$E$45</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O53">
+        <f>SUM($A48:O48)/$E$45</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P53">
+        <f>SUM($A48:P48)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q53">
+        <f>SUM($A48:Q48)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R53">
+        <f>SUM($A48:R48)/$E$45</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S53">
+        <f>SUM($A48:S48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <f>SUM($A48:T48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f>SUM($A48:U48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <f>SUM($A48:V48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f>SUM($A48:W48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <f>SUM($A48:X48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <f>SUM($A48:Y48)/$E$45</f>
+        <v>1</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38">
+      <c r="A56">
+        <f>SUM($A46:A46)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <f>SUM($A46:B46)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C56">
+        <f>SUM($A46:C46)/C$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D56">
+        <f>SUM($A46:D46)/D$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <f>SUM($A46:E46)/E$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="F56">
+        <f>SUM($A46:F46)/F$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G56">
+        <f>SUM($A46:G46)/G$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H56">
+        <f>SUM($A46:H46)/H$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I56">
+        <f>SUM($A46:I46)/I$1</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J56">
+        <f>SUM($A46:J46)/J$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K56">
+        <f>SUM($A46:K46)/K$1</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L56">
+        <f>SUM($A46:L46)/L$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M56">
+        <f>SUM($A46:M46)/M$1</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N56">
+        <f>SUM($A46:N46)/N$1</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="O56">
+        <f>SUM($A46:O46)/O$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="P56">
+        <f>SUM($A46:P46)/P$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q56">
+        <f>SUM($A46:Q46)/Q$1</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="R56">
+        <f>SUM($A46:R46)/R$1</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S56">
+        <f>SUM($A46:S46)/S$1</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="T56">
+        <f>SUM($A46:T46)/T$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="U56">
+        <f>SUM($A46:U46)/U$1</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="V56">
+        <f>SUM($A46:V46)/V$1</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="W56">
+        <f>SUM($A46:W46)/W$1</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X56">
+        <f>SUM($A46:X46)/X$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y56">
+        <f>SUM($A46:Y46)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38">
+      <c r="A57">
+        <f>SUM($A47:A47)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f>SUM($A47:B47)/B$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <f>SUM($A47:C47)/C$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D57">
+        <f>SUM($A47:D47)/D$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="E57">
+        <f>SUM($A47:E47)/E$1</f>
+        <v>0.4</v>
+      </c>
+      <c r="F57">
+        <f>SUM($A47:F47)/F$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G57">
+        <f>SUM($A47:G47)/G$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H57">
+        <f>SUM($A47:H47)/H$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="I57">
+        <f>SUM($A47:I47)/I$1</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J57">
+        <f>SUM($A47:J47)/J$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="K57">
+        <f>SUM($A47:K47)/K$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="L57">
+        <f>SUM($A47:L47)/L$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="M57">
+        <f>SUM($A47:M47)/M$1</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N57">
+        <f>SUM($A47:N47)/N$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O57">
+        <f>SUM($A47:O47)/O$1</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="P57">
+        <f>SUM($A47:P47)/P$1</f>
+        <v>0.3125</v>
+      </c>
+      <c r="Q57">
+        <f>SUM($A47:Q47)/Q$1</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R57">
+        <f>SUM($A47:R47)/R$1</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="S57">
+        <f>SUM($A47:S47)/S$1</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="T57">
+        <f>SUM($A47:T47)/T$1</f>
+        <v>0.3</v>
+      </c>
+      <c r="U57">
+        <f>SUM($A47:U47)/U$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V57">
+        <f>SUM($A47:V47)/V$1</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W57">
+        <f>SUM($A47:W47)/W$1</f>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="X57">
+        <f>SUM($A47:X47)/X$1</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y57">
+        <f>SUM($A47:Y47)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
+      <c r="A58">
+        <f>SUM($A48:A48)/A$1</f>
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f>SUM($A48:B48)/B$1</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>SUM($A48:C48)/C$1</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>SUM($A48:D48)/D$1</f>
+        <v>0.25</v>
+      </c>
+      <c r="E58">
+        <f>SUM($A48:E48)/E$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="F58">
+        <f>SUM($A48:F48)/F$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G58">
+        <f>SUM($A48:G48)/G$1</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H58">
+        <f>SUM($A48:H48)/H$1</f>
+        <v>0.125</v>
+      </c>
+      <c r="I58">
+        <f>SUM($A48:I48)/I$1</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J58">
+        <f>SUM($A48:J48)/J$1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K58">
+        <f>SUM($A48:K48)/K$1</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="L58">
+        <f>SUM($A48:L48)/L$1</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M58">
+        <f>SUM($A48:M48)/M$1</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="N58">
+        <f>SUM($A48:N48)/N$1</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O58">
+        <f>SUM($A48:O48)/O$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P58">
+        <f>SUM($A48:P48)/P$1</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q58">
+        <f>SUM($A48:Q48)/Q$1</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="R58">
+        <f>SUM($A48:R48)/R$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S58">
+        <f>SUM($A48:S48)/S$1</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="T58">
+        <f>SUM($A48:T48)/T$1</f>
+        <v>0.35</v>
+      </c>
+      <c r="U58">
+        <f>SUM($A48:U48)/U$1</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V58">
+        <f>SUM($A48:V48)/V$1</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="W58">
+        <f>SUM($A48:W48)/W$1</f>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="X58">
+        <f>SUM($A48:X48)/X$1</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Y58">
+        <f>SUM($A48:Y48)/Y$1</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="X62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="F63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="D64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64">
+        <f>(SUM(A56:Y56)+SUM(A34:Y34)+SUM(A14:Y14))/75</f>
+        <v>0.39081789055681915</v>
+      </c>
+      <c r="I64">
+        <f>AB51</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J64">
+        <f>AD51</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="K64">
+        <f>AF51</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L64">
+        <f>AH51</f>
+        <v>0.56666666666666676</v>
+      </c>
+      <c r="M64">
+        <f>AJ51</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N64">
+        <f>AL51</f>
+        <v>0.3</v>
+      </c>
+      <c r="P64">
+        <f>(E56+E34+E14)/3</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="Q64">
+        <f>(J56+J34+J14)/3</f>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="R64">
+        <f>(T56+T34+T14)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X64">
+        <f>F14</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y64">
+        <f>G34</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Z64">
+        <f>G56</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="D65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65">
+        <f>(SUM(A57:Y57)+SUM(A35:Y35)+SUM(A15:Y15))/75</f>
+        <v>0.22787874748454906</v>
+      </c>
+      <c r="I65">
+        <f>AB52</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J65">
+        <f>AD52</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K65">
+        <f>AF52</f>
+        <v>0.3</v>
+      </c>
+      <c r="L65">
+        <f>AH52</f>
+        <v>0.3</v>
+      </c>
+      <c r="M65">
+        <f>AJ52</f>
+        <v>0.3</v>
+      </c>
+      <c r="N65">
+        <f>AL52</f>
+        <v>0.3</v>
+      </c>
+      <c r="P65">
+        <f>(E57+E35+E15)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Q65">
+        <f>(J57+J35+J15)/3</f>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="R65">
+        <f>(T57+T35+T15)/3</f>
+        <v>0.25</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X65">
+        <f t="shared" ref="X65:X66" si="1">F15</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" ref="Y65:Y66" si="2">G35</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z65">
+        <f>G57</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="D66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66">
+        <f>(SUM(A58:Y58)+SUM(A36:Y36)+SUM(A16:Y16))/75</f>
+        <v>0.28962832474206818</v>
+      </c>
+      <c r="I66">
+        <f>AB53</f>
+        <v>0.5</v>
+      </c>
+      <c r="J66">
+        <f>AD53</f>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="K66">
+        <f>AF53</f>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="L66">
+        <f>AH53</f>
+        <v>0.43333333333333329</v>
+      </c>
+      <c r="M66">
+        <f>AJ53</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N66">
+        <f>AL53</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P66">
+        <f>(E58+E36+E16)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Q66">
+        <f>(J58+J36+J16)/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R66">
+        <f>(T58+T36+T16)/3</f>
+        <v>0.3</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z66">
+        <f>G58</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="V67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X67">
+        <f>X64-X65</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Z67" si="3">Y64-Y65</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="V68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X68">
+        <f>X64-X66</f>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" ref="Y68:Z68" si="4">Y64-Y66</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="V69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X69">
+        <f>X65-X66</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" ref="Y69:Z69" si="5">Y65-Y66</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="5">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4</v>
+      </c>
+      <c r="E72" s="5">
+        <v>5</v>
+      </c>
+      <c r="F72" s="5">
+        <v>6</v>
+      </c>
+      <c r="G72" s="5">
+        <v>7</v>
+      </c>
+      <c r="H72" s="5">
+        <v>8</v>
+      </c>
+      <c r="I72" s="5">
+        <v>9</v>
+      </c>
+      <c r="J72" s="5">
+        <v>10</v>
+      </c>
+      <c r="K72" s="5">
+        <v>11</v>
+      </c>
+      <c r="L72" s="5">
+        <v>12</v>
+      </c>
+      <c r="M72" s="5">
+        <v>13</v>
+      </c>
+      <c r="N72" s="5">
+        <v>14</v>
+      </c>
+      <c r="O72" s="5">
+        <v>15</v>
+      </c>
+      <c r="P72" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>17</v>
+      </c>
+      <c r="R72" s="5">
+        <v>18</v>
+      </c>
+      <c r="S72" s="5">
+        <v>19</v>
+      </c>
+      <c r="T72" s="5">
+        <v>20</v>
+      </c>
+      <c r="U72" s="5">
+        <v>21</v>
+      </c>
+      <c r="V72" s="5">
+        <v>22</v>
+      </c>
+      <c r="W72" s="5">
+        <v>23</v>
+      </c>
+      <c r="X72" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74">
+        <f>(A14+A34+A56)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:Y74" si="6">(B14+B34+B56)/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>0.47619047619047611</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="6"/>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="6"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="6"/>
+        <v>0.3125</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="6"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="6"/>
+        <v>0.29629629629629634</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="6"/>
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="6"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="6"/>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="6"/>
+        <v>0.25757575757575757</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="6"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="6"/>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="6"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75">
+        <f t="shared" ref="A75:Y76" si="7">(A15+A35+A57)/3</f>
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="7"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="7"/>
+        <v>0.23076923076923075</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="7"/>
+        <v>0.23809523809523805</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>0.24561403508771928</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="7"/>
+        <v>0.25396825396825395</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="7"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="7"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="7"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="7"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>0.31372549019607843</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="7"/>
+        <v>0.31481481481481483</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>0.31578947368421056</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="7"/>
+        <v>0.28571428571428564</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="7"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="7"/>
+        <v>0.27536231884057971</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="7"/>
+        <v>0.27777777777777785</v>
+      </c>
+      <c r="Y76">
+        <f>(Y16+Y36+Y58)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79">
+        <f>(A51+A29+A9)/3</f>
+        <v>0.10317460317460318</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79:Y79" si="8">(B51+B29+B9)/3</f>
+        <v>0.20634920634920637</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>0.40476190476190471</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>0.45238095238095238</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>0.45238095238095238</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>0.56349206349206349</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>0.56349206349206349</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="8"/>
+        <v>0.65873015873015872</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="8"/>
+        <v>0.65873015873015872</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="8"/>
+        <v>0.70634920634920639</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="8"/>
+        <v>0.75396825396825395</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="8"/>
+        <v>0.75396825396825395</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="8"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="8"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="8"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="8"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="8"/>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80">
+        <f t="shared" ref="A80:Y81" si="9">(A52+A30+A10)/3</f>
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="9"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="9"/>
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>0.30158730158730157</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="9"/>
+        <v>0.30158730158730157</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="9"/>
+        <v>0.34920634920634913</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>0.34920634920634913</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="9"/>
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="9"/>
+        <v>0.54761904761904756</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="9"/>
+        <v>0.54761904761904756</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="9"/>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="9"/>
+        <v>0.69841269841269826</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="9"/>
+        <v>0.75396825396825395</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="9"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="9"/>
+        <v>0.80158730158730152</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="9"/>
+        <v>0.89682539682539686</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="A81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="9"/>
+        <v>0.10317460317460318</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>0.10317460317460318</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="9"/>
+        <v>0.15079365079365079</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="9"/>
+        <v>0.20634920634920637</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>0.30952380952380953</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="9"/>
+        <v>0.36507936507936506</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="9"/>
+        <v>0.41269841269841273</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="9"/>
+        <v>0.41269841269841273</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="9"/>
+        <v>0.51587301587301582</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>0.51587301587301582</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="9"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="9"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="9"/>
+        <v>0.80952380952380942</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="9"/>
+        <v>0.80952380952380942</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="9"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="9"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="9"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="9"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="9"/>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="9"/>
+        <v>0.95238095238095244</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
+      <c r="A83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
+      <c r="A84">
+        <f>2/((1/A79)+(1/A74))</f>
+        <v>0.17869415807560138</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:Y85" si="10">2/((1/B79)+(1/B74))</f>
+        <v>0.31515151515151518</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="10"/>
+        <v>0.42276422764227639</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>0.50370370370370365</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="10"/>
+        <v>0.51583710407239813</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="10"/>
+        <v>0.47499999999999992</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="10"/>
+        <v>0.49155145929339472</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="10"/>
+        <v>0.457796852646638</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>0.42838018741633205</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="10"/>
+        <v>0.444254835039818</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="10"/>
+        <v>0.41887905604719761</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="10"/>
+        <v>0.43137254901960781</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="10"/>
+        <v>0.44266666666666665</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="10"/>
+        <v>0.42115534738485555</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="10"/>
+        <v>0.43196394522447562</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="10"/>
+        <v>0.44186046511627902</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="10"/>
+        <v>0.42316258351893093</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="10"/>
+        <v>0.43266398929049538</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="10"/>
+        <v>0.41579827608388009</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="10"/>
+        <v>0.40019811788013865</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="10"/>
+        <v>0.38572622031268644</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="10"/>
+        <v>0.39611650485436894</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="10"/>
+        <v>0.4049733570159858</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="10"/>
+        <v>0.41326808047852093</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="10"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="AA84">
+        <f>MAX(A84:Y84)</f>
+        <v>0.51583710407239813</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
+      <c r="A85" t="e">
+        <f>2/((1/A80)+(1/A75))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="10"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="10"/>
+        <v>0.22753128555176338</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="10"/>
+        <v>0.20964360587002098</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="10"/>
+        <v>0.19436345966958213</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="10"/>
+        <v>0.2733812949640288</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>0.25589225589225589</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="10"/>
+        <v>0.27974568574023612</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="10"/>
+        <v>0.26392459297343612</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="10"/>
+        <v>0.28490028490028491</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="10"/>
+        <v>0.30379746835443033</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>0.32258064516129026</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="10"/>
+        <v>0.32311621966794379</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="10"/>
+        <v>0.30948012232415906</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="10"/>
+        <v>0.3236245954692557</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="10"/>
+        <v>0.36342182890855446</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="10"/>
+        <v>0.37549407114624506</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="10"/>
+        <v>0.38572622031268644</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="10"/>
+        <v>0.37226445519465562</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="10"/>
+        <v>0.40417287630402382</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="10"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="10"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="AA85">
+        <f>MAX(B85:Y85)</f>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
+      <c r="A86" t="e">
+        <f t="shared" ref="A86:Y86" si="11">2/((1/A81)+(1/A76))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="11"/>
+        <v>0.15757575757575759</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>0.14092140921409216</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="11"/>
+        <v>0.18811881188118812</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>0.23266219239373601</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>0.32098765432098764</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="11"/>
+        <v>0.34848484848484845</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="11"/>
+        <v>0.36879432624113473</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>0.34494195688225537</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>0.40498442367601245</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="11"/>
+        <v>0.38179148311306899</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>0.39819004524886875</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>0.41106719367588934</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="11"/>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="11"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="11"/>
+        <v>0.45220282626766417</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="11"/>
+        <v>0.46049661399548536</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="11"/>
+        <v>0.46817248459958943</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="11"/>
+        <v>0.45059288537549408</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="11"/>
+        <v>0.43428571428571416</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="11"/>
+        <v>0.41911764705882348</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="11"/>
+        <v>0.42720629567172569</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="11"/>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="11"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="AA86">
+        <f>MAX(B86:Y86)</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
